--- a/benchmarks/benchmark_hpc_2B.xlsx
+++ b/benchmarks/benchmark_hpc_2B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micha\Documents\GitHub\CandidateSearch\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989BAD3D-1660-4028-9255-BFEA21F2298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F200022-7B61-42E1-B83F-799BFA164610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="2970" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
+    <workbookView xWindow="2370" yWindow="4335" windowWidth="34995" windowHeight="15345" xr2:uid="{F7584083-E7CF-4402-8903-FC960A7A0A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,25 +537,31 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>1629.4949514</v>
+      </c>
+      <c r="C2">
+        <v>1612.6292473999999</v>
+      </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" si="0">MIN(B2:F2)</f>
-        <v>0</v>
+        <v>1612.6292473999999</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H9" si="1">MAX(B2:F2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="e">
+        <v>1629.4949514</v>
+      </c>
+      <c r="I2">
         <f t="shared" ref="I2:I9" si="2">AVERAGE(B2:F2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J2" t="e">
+        <v>1621.0620994000001</v>
+      </c>
+      <c r="J2">
         <f t="shared" ref="J2:J9" si="3">_xlfn.STDEV.S(B2:F2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" t="e">
+        <v>11.925853667885116</v>
+      </c>
+      <c r="K2">
         <f>RANK(I2,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -574,25 +580,31 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>1385.5389121000001</v>
+      </c>
+      <c r="C3">
+        <v>1382.9429846</v>
+      </c>
       <c r="G3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1382.9429846</v>
       </c>
       <c r="H3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I3" t="e">
+        <v>1385.5389121000001</v>
+      </c>
+      <c r="I3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" t="e">
+        <v>1384.2409483500001</v>
+      </c>
+      <c r="J3">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" t="e">
+        <v>1.8355979387186527</v>
+      </c>
+      <c r="K3">
         <f>RANK(I3,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -611,25 +623,31 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>2022.9213648</v>
+      </c>
+      <c r="C4">
+        <v>2021.4770808000001</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2021.4770808000001</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I4" t="e">
+        <v>2022.9213648</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J4" t="e">
+        <v>2022.1992227999999</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" t="e">
+        <v>1.0212630103591787</v>
+      </c>
+      <c r="K4">
         <f>RANK(I4,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>8</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -648,25 +666,31 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5">
+        <v>1829.3252654999999</v>
+      </c>
+      <c r="C5">
+        <v>1828.5352717999999</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1828.5352717999999</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" t="e">
+        <v>1829.3252654999999</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" t="e">
+        <v>1828.93026865</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" t="e">
+        <v>0.5586099023646286</v>
+      </c>
+      <c r="K5">
         <f>RANK(I5,I2:I10,1)</f>
-        <v>#DIV/0!</v>
+        <v>7</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -685,25 +709,31 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>1173.1693943</v>
+      </c>
+      <c r="C6">
+        <v>1171.6065335999999</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1171.6065335999999</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I6" t="e">
+        <v>1173.1693943</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>1172.3879639500001</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>1.105109399020026</v>
+      </c>
+      <c r="K6">
         <f>RANK(I6,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>2</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -722,25 +752,31 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>963.02072559999999</v>
+      </c>
+      <c r="C7">
+        <v>964.91545069999995</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>963.02072559999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" t="e">
+        <v>964.91545069999995</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>963.96808814999997</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>1.3397729666943308</v>
+      </c>
+      <c r="K7">
         <f>RANK(I7,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -759,25 +795,31 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
+      <c r="B8">
+        <v>1411.9673691999999</v>
+      </c>
+      <c r="C8">
+        <v>1415.1851658999999</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1411.9673691999999</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="e">
+        <v>1415.1851658999999</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
+        <v>1413.57626755</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="e">
+        <v>2.2753258670497005</v>
+      </c>
+      <c r="K8">
         <f>RANK(I8,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -796,25 +838,31 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
+      <c r="B9">
+        <v>1225.0392898</v>
+      </c>
+      <c r="C9">
+        <v>1272.2894394</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1225.0392898</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="e">
+        <v>1272.2894394</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e">
+        <v>1248.6643646</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
+        <v>33.410901194238825</v>
+      </c>
+      <c r="K9">
         <f>RANK(I9,I2:I9,1)</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
